--- a/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_total.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T221"/>
+  <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11729,2274 +11729,6 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>CHEMBL2402083</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>1</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>425.52</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>7</v>
-      </c>
-      <c r="J195" t="n">
-        <v>4</v>
-      </c>
-      <c r="K195" t="n">
-        <v>5</v>
-      </c>
-      <c r="L195" t="n">
-        <v>3</v>
-      </c>
-      <c r="M195" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q195" t="n">
-        <v>250</v>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>CHEMBL2406145</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged Plk1 (unknown origin) assessed as inhibition of DEKTDDED phosphorylation at Thr1342 after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>CHEMBL508139</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>353.43</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>4</v>
-      </c>
-      <c r="K196" t="n">
-        <v>4</v>
-      </c>
-      <c r="L196" t="n">
-        <v>4</v>
-      </c>
-      <c r="M196" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q196" t="n">
-        <v>412</v>
-      </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t>CHEMBL953116</t>
-        </is>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>Inhibition of Plk1</t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>CHEMBL4531713</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>1</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>460.44</v>
-      </c>
-      <c r="H197" t="n">
-        <v>3</v>
-      </c>
-      <c r="I197" t="n">
-        <v>9</v>
-      </c>
-      <c r="J197" t="n">
-        <v>7</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2</v>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="n">
-        <v>176.49</v>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q197" t="n">
-        <v>400</v>
-      </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t>CHEMBL4351047</t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T197" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>CHEMBL515457</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>1</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>465.53</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>10</v>
-      </c>
-      <c r="K198" t="n">
-        <v>2</v>
-      </c>
-      <c r="L198" t="n">
-        <v>2</v>
-      </c>
-      <c r="M198" t="n">
-        <v>99.39</v>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q198" t="n">
-        <v>74</v>
-      </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>CHEMBL2207846</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>674.65</v>
-      </c>
-      <c r="H199" t="n">
-        <v>9</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12</v>
-      </c>
-      <c r="J199" t="n">
-        <v>17</v>
-      </c>
-      <c r="K199" t="n">
-        <v>2</v>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q199" t="n">
-        <v>620</v>
-      </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>CHEMBL4387037</t>
-        </is>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 PBD (unknown origin) using GPMQSpTPLNG-OH as fluorescent probe incubated for 30 mins by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>CHEMBL1209018</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>618.21</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>6</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11</v>
-      </c>
-      <c r="K200" t="n">
-        <v>6</v>
-      </c>
-      <c r="L200" t="n">
-        <v>5</v>
-      </c>
-      <c r="M200" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>1</v>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>CHEMBL1212570</t>
-        </is>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 by SPA assay</t>
-        </is>
-      </c>
-      <c r="T200" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>CHEMBL559845</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>1</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>320.36</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3</v>
-      </c>
-      <c r="K201" t="n">
-        <v>4</v>
-      </c>
-      <c r="L201" t="n">
-        <v>3</v>
-      </c>
-      <c r="M201" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q201" t="n">
-        <v>68</v>
-      </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>CHEMBL1809664</t>
-        </is>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 assessed as [33P]-gamma-ATP incorporation into substrate by gamma counting</t>
-        </is>
-      </c>
-      <c r="T201" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>CHEMBL3260241</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>354.36</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>4</v>
-      </c>
-      <c r="K202" t="n">
-        <v>3</v>
-      </c>
-      <c r="L202" t="n">
-        <v>2</v>
-      </c>
-      <c r="M202" t="n">
-        <v>85.89</v>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>30</v>
-      </c>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t>CHEMBL3268272</t>
-        </is>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) using RRRDELMEASFADQEAKV as substrate after 20 mins by liquid scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T202" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>CHEMBL2205435</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>425.49</v>
-      </c>
-      <c r="H203" t="n">
-        <v>3</v>
-      </c>
-      <c r="I203" t="n">
-        <v>9</v>
-      </c>
-      <c r="J203" t="n">
-        <v>8</v>
-      </c>
-      <c r="K203" t="n">
-        <v>3</v>
-      </c>
-      <c r="L203" t="n">
-        <v>3</v>
-      </c>
-      <c r="M203" t="n">
-        <v>114.47</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>771</v>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>CHEMBL2210942</t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant GST-tagged PLK1 using biotin-ahx-AKMETTFYDDALNASFLPSEKKK-amide as substrate after 30 mins by scintillation counting analysis in presence of gamma-[33P]ATP</t>
-        </is>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H204" t="n">
-        <v>3</v>
-      </c>
-      <c r="I204" t="n">
-        <v>4</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1</v>
-      </c>
-      <c r="K204" t="n">
-        <v>8</v>
-      </c>
-      <c r="L204" t="n">
-        <v>5</v>
-      </c>
-      <c r="M204" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q204" t="n">
-        <v>220</v>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>CHEMBL1908672</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>Binding constant for PLK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>CHEMBL523487</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>361.3</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4</v>
-      </c>
-      <c r="J205" t="n">
-        <v>2</v>
-      </c>
-      <c r="K205" t="n">
-        <v>3</v>
-      </c>
-      <c r="L205" t="n">
-        <v>2</v>
-      </c>
-      <c r="M205" t="n">
-        <v>90.39</v>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q205" t="n">
-        <v>56000</v>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T205" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>CHEMBL1922225</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@]12C)C(C)C</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@@]21C)C(C)C</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>410.64</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>8</v>
-      </c>
-      <c r="K206" t="n">
-        <v>3</v>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q206" t="n">
-        <v>100000</v>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>CHEMBL1926231</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PLK1 using casein as substrate</t>
-        </is>
-      </c>
-      <c r="T206" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>CHEMBL2152768</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>0</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>504.61</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>7</v>
-      </c>
-      <c r="J207" t="n">
-        <v>5</v>
-      </c>
-      <c r="K207" t="n">
-        <v>6</v>
-      </c>
-      <c r="L207" t="n">
-        <v>4</v>
-      </c>
-      <c r="M207" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q207" t="n">
-        <v>1</v>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>CHEMBL2157438</t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T207" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>CHEMBL1644620</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>4</v>
-      </c>
-      <c r="K208" t="n">
-        <v>5</v>
-      </c>
-      <c r="L208" t="n">
-        <v>4</v>
-      </c>
-      <c r="M208" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q208" t="n">
-        <v>19</v>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>CHEMBL1648812</t>
-        </is>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 10 uM after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>9</v>
-      </c>
-      <c r="J209" t="n">
-        <v>2</v>
-      </c>
-      <c r="K209" t="n">
-        <v>5</v>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q209" t="n">
-        <v>0</v>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>CHEMBL1019633</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T209" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>CHEMBL4247506</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>0</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>472.47</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5</v>
-      </c>
-      <c r="J210" t="n">
-        <v>2</v>
-      </c>
-      <c r="K210" t="n">
-        <v>5</v>
-      </c>
-      <c r="L210" t="n">
-        <v>5</v>
-      </c>
-      <c r="M210" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q210" t="n">
-        <v>1</v>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>CHEMBL4230199</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>CHEMBL3759085</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>374.47</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4</v>
-      </c>
-      <c r="J211" t="n">
-        <v>5</v>
-      </c>
-      <c r="K211" t="n">
-        <v>4</v>
-      </c>
-      <c r="L211" t="n">
-        <v>4</v>
-      </c>
-      <c r="M211" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q211" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t>CHEMBL3761596</t>
-        </is>
-      </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4</v>
-      </c>
-      <c r="L212" t="n">
-        <v>3</v>
-      </c>
-      <c r="M212" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q212" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>CHEMBL160333</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
-        <v>349.17</v>
-      </c>
-      <c r="H213" t="n">
-        <v>3</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3</v>
-      </c>
-      <c r="K213" t="n">
-        <v>3</v>
-      </c>
-      <c r="L213" t="n">
-        <v>2</v>
-      </c>
-      <c r="M213" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q213" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>CHEMBL1909342</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
-        <v>305.4</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>4</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3</v>
-      </c>
-      <c r="K214" t="n">
-        <v>3</v>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q214" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>CHEMBL1909414</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>0</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>453.55</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5</v>
-      </c>
-      <c r="J215" t="n">
-        <v>7</v>
-      </c>
-      <c r="K215" t="n">
-        <v>5</v>
-      </c>
-      <c r="L215" t="n">
-        <v>4</v>
-      </c>
-      <c r="M215" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q215" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>CHEMBL191705</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>400.46</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>7</v>
-      </c>
-      <c r="J216" t="n">
-        <v>7</v>
-      </c>
-      <c r="K216" t="n">
-        <v>3</v>
-      </c>
-      <c r="L216" t="n">
-        <v>3</v>
-      </c>
-      <c r="M216" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q216" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CHEMBL220244</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>0</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>296.37</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3</v>
-      </c>
-      <c r="K217" t="n">
-        <v>2</v>
-      </c>
-      <c r="L217" t="n">
-        <v>2</v>
-      </c>
-      <c r="M217" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q217" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="R217" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>CHEMBL384073</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>0</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>365.37</v>
-      </c>
-      <c r="H218" t="n">
-        <v>4</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3</v>
-      </c>
-      <c r="K218" t="n">
-        <v>4</v>
-      </c>
-      <c r="L218" t="n">
-        <v>3</v>
-      </c>
-      <c r="M218" t="n">
-        <v>98.91</v>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q218" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R218" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>CHEMBL4213524</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>0</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>376.46</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4</v>
-      </c>
-      <c r="J219" t="n">
-        <v>2</v>
-      </c>
-      <c r="K219" t="n">
-        <v>5</v>
-      </c>
-      <c r="L219" t="n">
-        <v>2</v>
-      </c>
-      <c r="M219" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q219" t="n">
-        <v>4</v>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>CHEMBL4198487</t>
-        </is>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 10 uM using Ser/Thr-16 peptide substrate after 60 mins by Z'-LYTE assay relative to control</t>
-        </is>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>CHEMBL427159</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
-        <v>430.42</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>6</v>
-      </c>
-      <c r="J220" t="n">
-        <v>5</v>
-      </c>
-      <c r="K220" t="n">
-        <v>5</v>
-      </c>
-      <c r="L220" t="n">
-        <v>5</v>
-      </c>
-      <c r="M220" t="n">
-        <v>77.23</v>
-      </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q220" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R220" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>CHEMBL506153</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>0</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
-        <v>330.35</v>
-      </c>
-      <c r="H221" t="n">
-        <v>3</v>
-      </c>
-      <c r="I221" t="n">
-        <v>8</v>
-      </c>
-      <c r="J221" t="n">
-        <v>6</v>
-      </c>
-      <c r="K221" t="n">
-        <v>3</v>
-      </c>
-      <c r="L221" t="n">
-        <v>3</v>
-      </c>
-      <c r="M221" t="n">
-        <v>136.78</v>
-      </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q221" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="R221" t="inlineStr">
-        <is>
-          <t>CHEMBL1962097</t>
-        </is>
-      </c>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
